--- a/docs/Чек лист розетка.xlsx
+++ b/docs/Чек лист розетка.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Додати перший товар із категорії "Ноутбуки" у кошик</t>
   </si>
@@ -103,6 +103,24 @@
 3. На сторінці товару який додано у кошик кнопка "Купити" має такст "В кошику" і має колір такий як основна сторінка товару, замість зеленого кольору
 4. Назва доданого товару у кошику співпадає з назваю товару з сторінки товару з якої було додано товар
 5. У хедері лічильник корзина містить число "1"</t>
+  </si>
+  <si>
+    <t>Сайдбар</t>
+  </si>
+  <si>
+    <t>Каталог\Сайдбар</t>
+  </si>
+  <si>
+    <t>Відображення іконок брендів для кожної категорії</t>
+  </si>
+  <si>
+    <t>Відображаються картинки усіх брендів для обраної категорії</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -155,16 +173,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -179,28 +194,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -240,27 +234,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -545,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +546,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -583,11 +556,11 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -596,13 +569,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="D4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -616,7 +589,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -628,7 +601,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -642,7 +615,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -654,7 +627,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -666,7 +639,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -678,27 +651,55 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10 D14">
       <formula1>"Passed,Failed,Blocked,Not run,Skipped"</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/Чек лист розетка.xlsx
+++ b/docs/Чек лист розетка.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Додати перший товар із категорії "Ноутбуки" у кошик</t>
   </si>
@@ -95,16 +95,6 @@
     <t>Кошик порожній, не містить товарів і має напис "Кошик порожній"</t>
   </si>
   <si>
-    <t>Додати перший товар із категорії "Мобільні телефони" у кошик у кількості 1 штука</t>
-  </si>
-  <si>
-    <t>1. Відкрито кошик
-2. Кнопка "Оформити замовлення" клікабельна
-3. На сторінці товару який додано у кошик кнопка "Купити" має такст "В кошику" і має колір такий як основна сторінка товару, замість зеленого кольору
-4. Назва доданого товару у кошику співпадає з назваю товару з сторінки товару з якої було додано товар
-5. У хедері лічильник корзина містить число "1"</t>
-  </si>
-  <si>
     <t>Сайдбар</t>
   </si>
   <si>
@@ -121,6 +111,32 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>1. Відкрито кошик - модальне вікно з текстом "Кошик" для Н3
+2. На сторінці Кошика є таблиця товарів - список елементів таблиці товарів "cart-list__item"
+3. Кнопка "Оформити замовлення" клікабельна
+4. На сторінці товару який додано у кошик кнопка "Купити" має такст "В кошику" і має колір такий як основна сторінка товару, замість зеленого кольору
+5. Назва доданого товару у кошику співпадає з назваю товару з сторінки товару з якої було додано товар
+6. У хедері лічильник корзина містить число "1"</t>
+  </si>
+  <si>
+    <t>Пошук</t>
+  </si>
+  <si>
+    <t>Пошук товарів по ключовому слову</t>
+  </si>
+  <si>
+    <t>На сторінці результатів відображаються товари, назва яких містить ключове слове</t>
+  </si>
+  <si>
+    <t>Додати перший товар із категорії "Смартфоны, ТВ и электроника/Телевизоры" у кошик у кількості 1 штука</t>
+  </si>
+  <si>
+    <t>Видалити всі товари з кошика</t>
+  </si>
+  <si>
+    <t>Таблица товаров не содержится на странице</t>
   </si>
 </sst>
 </file>
@@ -518,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,22 +572,31 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -611,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -655,7 +680,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -663,16 +688,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -683,23 +719,23 @@
     <mergeCell ref="A12:A13"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10 D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14 D2:D10">
       <formula1>"Passed,Failed,Blocked,Not run,Skipped"</formula1>
     </dataValidation>
   </dataValidations>
